--- a/4F路由配置信息.xlsx
+++ b/4F路由配置信息.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\technic docume\网络\CTE 网络相关信息\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Design\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
